--- a/administration/templates/teacher_records.xlsx
+++ b/administration/templates/teacher_records.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\imgre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBC4275-D567-4B34-BCD3-3D96261F126F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E76B19E-F6E8-485A-9E6A-EFC762D0BCC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="2990" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,14 +43,14 @@
     <t>Adams</t>
   </si>
   <si>
-    <t>lucas.adams@example.com</t>
+    <t>lucas.adams@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +62,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -99,16 +107,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -414,7 +425,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -449,11 +460,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{253C56D0-D6DD-488D-BCBA-44AE586E2A72}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>